--- a/tables/ancova_means.xlsx
+++ b/tables/ancova_means.xlsx
@@ -476,16 +476,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>36.6</v>
+        <v>90.5</v>
       </c>
       <c r="D2" t="n">
-        <v>54.6</v>
+        <v>114.5</v>
       </c>
       <c r="E2" t="n">
-        <v>18.3</v>
+        <v>30.4</v>
       </c>
       <c r="F2" t="n">
-        <v>44.4</v>
+        <v>24.5</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -502,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="R2" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -516,18 +516,18 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>87.9</v>
+        <v>49.5</v>
       </c>
       <c r="D3" t="n">
-        <v>108.9</v>
+        <v>25.5</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>8.76</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>10.76</v>
+        <v>4.6</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -536,16 +536,16 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="R3" t="n">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
@@ -556,40 +556,40 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1.6</v>
+        <v>0.86</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4</v>
+        <v>-1.14</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="n">
-        <v>1.1</v>
+        <v>0.36</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>1.36</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.9</v>
+        <v>-1.64</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1</v>
+        <v>-0.64</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="R4" t="n">
-        <v>39</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
@@ -600,10 +600,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.9</v>
+        <v>-0.6</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.9</v>
+        <v>-2.6</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -614,20 +614,20 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>12.2</v>
+        <v>-6.4</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="R5" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -638,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-44.8</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>-45.8</v>
+        <v>16</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -653,19 +653,19 @@
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" t="n">
-        <v>-30.9</v>
+        <v>-37.3</v>
       </c>
       <c r="O6" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="R6" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ancova_means.xlsx
+++ b/tables/ancova_means.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">ancova_mean_exp</t>
   </si>
   <si>
@@ -69,6 +75,12 @@
   </si>
   <si>
     <t xml:space="preserve">ancova_means_sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G+MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+R+Z</t>
   </si>
   <si>
     <t xml:space="preserve">ancova_means_se</t>
@@ -467,184 +479,218 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>114.5</v>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>30.4</v>
+        <v>65.8</v>
       </c>
       <c r="F2" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
+        <v>75.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>34.8</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
+      <c r="O2"/>
+      <c r="P2"/>
       <c r="Q2" t="n">
-        <v>87</v>
+        <v>0.2</v>
       </c>
       <c r="R2" t="n">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>41</v>
+      </c>
+      <c r="T2" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.36</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
+      <c r="O3"/>
+      <c r="P3"/>
       <c r="Q3" t="n">
-        <v>88</v>
+        <v>0.3</v>
       </c>
       <c r="R3" t="n">
-        <v>98</v>
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>30</v>
+      </c>
+      <c r="T3" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.11</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.36</v>
-      </c>
+      <c r="I4"/>
+      <c r="J4"/>
       <c r="K4" t="n">
-        <v>-1.64</v>
+        <v>-0.39</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.64</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
+        <v>0.61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
       <c r="Q4" t="n">
-        <v>100</v>
+        <v>0.25</v>
       </c>
       <c r="R4" t="n">
-        <v>108</v>
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>68</v>
+      </c>
+      <c r="T4" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-25.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-21.9</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5" t="n">
-        <v>-6.4</v>
-      </c>
+      <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
+        <v>-30.9</v>
+      </c>
+      <c r="P5"/>
       <c r="Q5" t="n">
-        <v>54</v>
+        <v>0.2</v>
       </c>
       <c r="R5" t="n">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38.4</v>
+      </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -652,20 +698,22 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
-      <c r="N6" t="n">
-        <v>-37.3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="N6"/>
+      <c r="O6"/>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>11.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>66</v>
+        <v>0.25</v>
       </c>
       <c r="R6" t="n">
-        <v>60</v>
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>74</v>
+      </c>
+      <c r="T6" t="n">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ancova_means.xlsx
+++ b/tables/ancova_means.xlsx
@@ -500,16 +500,16 @@
         <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>65.8</v>
+        <v>61.6</v>
       </c>
       <c r="F2" t="n">
-        <v>75.8</v>
+        <v>85.6</v>
       </c>
       <c r="G2" t="n">
-        <v>39.2</v>
+        <v>19.9</v>
       </c>
       <c r="H2" t="n">
-        <v>34.8</v>
+        <v>44.2</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -520,16 +520,16 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T2" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -546,18 +546,18 @@
         <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>29.2</v>
+        <v>37.2</v>
       </c>
       <c r="F3" t="n">
-        <v>38.2</v>
+        <v>21.2</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>3.36</v>
+        <v>3.76</v>
       </c>
       <c r="J3" t="n">
-        <v>4.36</v>
+        <v>4.76</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -566,16 +566,16 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="T3" t="n">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -592,40 +592,40 @@
         <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>0.11</v>
+        <v>-3.57</v>
       </c>
       <c r="F4" t="n">
-        <v>2.11</v>
+        <v>-3.57</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="n">
-        <v>-0.39</v>
+        <v>-4.07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.61</v>
+        <v>-3.07</v>
       </c>
       <c r="M4" t="n">
-        <v>1.61</v>
+        <v>-4.07</v>
       </c>
       <c r="N4" t="n">
-        <v>2.61</v>
+        <v>-3.07</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="T4" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -642,10 +642,10 @@
         <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>-25.9</v>
+        <v>39.7</v>
       </c>
       <c r="F5" t="n">
-        <v>-21.9</v>
+        <v>39.7</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -656,20 +656,20 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>-30.9</v>
+        <v>-24.1</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T5" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -686,10 +686,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>39.4</v>
+        <v>29.4</v>
       </c>
       <c r="F6" t="n">
-        <v>38.4</v>
+        <v>30.4</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -701,7 +701,7 @@
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6" t="n">
-        <v>11.4</v>
+        <v>-27.9</v>
       </c>
       <c r="Q6" t="n">
         <v>0.25</v>
@@ -710,10 +710,10 @@
         <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="T6" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ancova_means.xlsx
+++ b/tables/ancova_means.xlsx
@@ -500,16 +500,16 @@
         <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>61.6</v>
+        <v>75.1</v>
       </c>
       <c r="F2" t="n">
-        <v>85.6</v>
+        <v>83.1</v>
       </c>
       <c r="G2" t="n">
-        <v>19.9</v>
+        <v>42.5</v>
       </c>
       <c r="H2" t="n">
-        <v>44.2</v>
+        <v>20.6</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -520,16 +520,16 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="T2" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -546,18 +546,18 @@
         <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="F3" t="n">
-        <v>21.2</v>
+        <v>26.1</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>3.76</v>
+        <v>7.38</v>
       </c>
       <c r="J3" t="n">
-        <v>4.76</v>
+        <v>11.38</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -566,16 +566,16 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="T3" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -592,40 +592,40 @@
         <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.57</v>
+        <v>0.34</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.57</v>
+        <v>1.34</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="n">
-        <v>-4.07</v>
+        <v>-0.16</v>
       </c>
       <c r="L4" t="n">
-        <v>-3.07</v>
+        <v>0.84</v>
       </c>
       <c r="M4" t="n">
-        <v>-4.07</v>
+        <v>0.84</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.07</v>
+        <v>1.84</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="T4" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -642,10 +642,10 @@
         <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>39.7</v>
+        <v>3.2</v>
       </c>
       <c r="F5" t="n">
-        <v>39.7</v>
+        <v>3.2</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -656,20 +656,20 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>-24.1</v>
+        <v>21.5</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="T5" t="n">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
@@ -686,10 +686,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>29.4</v>
+        <v>-10.5</v>
       </c>
       <c r="F6" t="n">
-        <v>30.4</v>
+        <v>-8.5</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -701,7 +701,7 @@
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6" t="n">
-        <v>-27.9</v>
+        <v>-26.3</v>
       </c>
       <c r="Q6" t="n">
         <v>0.25</v>
@@ -710,10 +710,10 @@
         <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="T6" t="n">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
